--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/computeResize.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/computeResize.xlsx
@@ -1,25 +1,559 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10740" windowHeight="7905"/>
+  </bookViews>
   <sheets>
     <sheet name="cn" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+  <si>
+    <t>adjust_config</t>
+  </si>
+  <si>
+    <t>Resize</t>
+  </si>
+  <si>
+    <t>adjust_tips_one</t>
+  </si>
+  <si>
+    <t>After the configuration modification, the virtual machine shall be rebooted on the console before taking effect.</t>
+  </si>
+  <si>
+    <t>adjust_tips_two</t>
+  </si>
+  <si>
+    <t>After the configuration modification, the virtual machine shall be rebooted on the console before taking effect. The monthly package resources only support upgrade configuration.</t>
+  </si>
+  <si>
+    <t>billing_type</t>
+  </si>
+  <si>
+    <t>Billing Type</t>
+  </si>
+  <si>
+    <t>adjusted_cost</t>
+  </si>
+  <si>
+    <t>Cost after adjustment</t>
+  </si>
+  <si>
+    <t>pre_hour_total</t>
+  </si>
+  <si>
+    <t>/hour (total</t>
+  </si>
+  <si>
+    <t>expiration_time</t>
+  </si>
+  <si>
+    <t>Expiration Time</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>select_same_config</t>
+  </si>
+  <si>
+    <t>'The selected configuration is same as the current configuration'</t>
+  </si>
+  <si>
+    <t>immediate_pay</t>
+  </si>
+  <si>
+    <t>Pay Now</t>
+  </si>
+  <si>
+    <t>start_get_vmInfo</t>
+  </si>
+  <si>
+    <t>'Begin to obtain details of virtual machine'</t>
+  </si>
+  <si>
+    <t>single_vmDetailInfo</t>
+  </si>
+  <si>
+    <t>'Details of a single virtual machine are</t>
+  </si>
+  <si>
+    <t>start_get_imageInfo</t>
+  </si>
+  <si>
+    <t>'Begin to obtain details of image'</t>
+  </si>
+  <si>
+    <t>imageInfo</t>
+  </si>
+  <si>
+    <t>‘Details of image are</t>
+  </si>
+  <si>
+    <t>calculting...</t>
+  </si>
+  <si>
+    <t>'Calculating...';</t>
+  </si>
+  <si>
+    <t>get_vm_price</t>
+  </si>
+  <si>
+    <t>'Begin to obtain the price of virtual machine'</t>
+  </si>
+  <si>
+    <t>vmPrice</t>
+  </si>
+  <si>
+    <t>'The price of virtual machine is</t>
+  </si>
+  <si>
+    <t>pre_month</t>
+  </si>
+  <si>
+    <t>'/month';</t>
+  </si>
+  <si>
+    <t>srart_adjust_config</t>
+  </si>
+  <si>
+    <t>'Begin to resize'</t>
+  </si>
+  <si>
+    <t>vm_adjust_config</t>
+  </si>
+  <si>
+    <t>'Resizing of virtual machine'</t>
+  </si>
+  <si>
+    <t>adjust_success</t>
+  </si>
+  <si>
+    <t>'Resize successful</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>调整配置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>配置修改完成后，需在控制台重启云主机才能生效。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>配置修改完成后，需在控制台重启云主机才能生效。包年包月资源仅支持升级配置。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>计费类型</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>调整后费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>小时（合计</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>到期时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>立即支付</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>单个云主机详情信息为</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>镜像详情信息为</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>云主机价格为</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>调整配置成功</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>消</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>所选配置与当前配置相同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>开始获取云主机详情信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>开始获取镜像详情信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>计算中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>...';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>开始获取云主机价格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>开始调整配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>云主机调整配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,14 +576,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,191 +917,268 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="169.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>adjust_config</v>
-      </c>
-      <c r="B1" t="str">
-        <v>调整配置</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>adjust_tips_one</v>
-      </c>
-      <c r="B2" t="str">
-        <v>配置修改完成后，需在控制台重启云主机才能生效。</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>adjust_tips_two</v>
-      </c>
-      <c r="B3" t="str">
-        <v>配置修改完成后，需在控制台重启云主机才能生效。包年包月资源仅支持升级配置。</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>billing_type</v>
-      </c>
-      <c r="B4" t="str">
-        <v>计费类型</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>adjusted_cost</v>
-      </c>
-      <c r="B5" t="str">
-        <v>调整后费用</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>pre_hour_total</v>
-      </c>
-      <c r="B6" t="str">
-        <v>/小时（合计</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>expiration_time</v>
-      </c>
-      <c r="B7" t="str">
-        <v>到期时间</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>charge</v>
-      </c>
-      <c r="B8" t="str">
-        <v>费用</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>cancel</v>
-      </c>
-      <c r="B9" t="str">
-        <v>取 消</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>select_same_config</v>
-      </c>
-      <c r="B10" t="str">
-        <v>'所选配置与当前配置相同'</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>immediate_pay</v>
-      </c>
-      <c r="B11" t="str">
-        <v>立即支付</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>start_get_vmInfo</v>
-      </c>
-      <c r="B12" t="str">
-        <v>'开始获取云主机详情信息'</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>single_vmDetailInfo</v>
-      </c>
-      <c r="B13" t="str">
-        <v>'单个云主机详情信息为</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>start_get_imageInfo</v>
-      </c>
-      <c r="B14" t="str">
-        <v>'开始获取镜像详情信息'</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>imageInfo</v>
-      </c>
-      <c r="B15" t="str">
-        <v>'镜像详情信息为</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>calculting...</v>
-      </c>
-      <c r="B16" t="str">
-        <v>'计算中...';</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>get_vm_price</v>
-      </c>
-      <c r="B17" t="str">
-        <v>'开始获取云主机价格'</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>vmPrice</v>
-      </c>
-      <c r="B18" t="str">
-        <v>'云主机价格为</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>pre_month</v>
-      </c>
-      <c r="B19" t="str">
-        <v>'/月';</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>srart_adjust_config</v>
-      </c>
-      <c r="B20" t="str">
-        <v>'开始调整配置'</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>vm_adjust_config</v>
-      </c>
-      <c r="B21" t="str">
-        <v>'云主机调整配置'</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>adjust_success</v>
-      </c>
-      <c r="B22" t="str">
-        <v>'调整配置成功</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B22"/>
+    <ignoredError sqref="C1:C22 A1:A22" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>